--- a/MODs/Shanshui/丝路山水地图DLC.xlsx
+++ b/MODs/Shanshui/丝路山水地图DLC.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="128">
   <si>
     <r>
       <rPr>
@@ -189,6 +189,44 @@
     <t xml:space="preserve">城池坐标</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Data/Scenario</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">，建筑，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">AU</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">列</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">剧本编辑器</t>
   </si>
   <si>
@@ -198,6 +236,35 @@
     <r>
       <rPr>
         <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Data/Scenario</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">，建筑类，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">COMMONDATA.JSON</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
         <rFont val="微软雅黑"/>
         <family val="2"/>
         <charset val="134"/>
@@ -218,15 +285,58 @@
     <t xml:space="preserve">新增城池</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Data/Scenario</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">，建筑，新增行</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">新增</t>
   </si>
   <si>
+    <t xml:space="preserve">剧本编辑器，新增14个城池</t>
+  </si>
+  <si>
     <t xml:space="preserve">城池改名</t>
   </si>
   <si>
     <r>
       <rPr>
         <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Data/Scenario</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">，建筑，修改行</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
         <rFont val="微软雅黑"/>
         <family val="2"/>
         <charset val="134"/>
@@ -274,6 +384,44 @@
     <t xml:space="preserve">城池链接</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Data/Scenario</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">，建筑，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">AG/AH</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">列</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">剧本编辑器，原版的链接已做部分修复，新设新增城池的链接</t>
   </si>
   <si>
@@ -283,6 +431,35 @@
     <r>
       <rPr>
         <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Data/Scenario</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">，兵种类，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">COMMONDATA.JSON</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
         <rFont val="微软雅黑"/>
         <family val="2"/>
         <charset val="134"/>
@@ -327,6 +504,118 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">城池种类</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Data/Scenario</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">建筑类，新增28号“京城”，COMMONDATA.JSON</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">剧本编辑器，防止洛阳长安显示扩建后的城池图片</t>
+  </si>
+  <si>
+    <t xml:space="preserve">洛阳长安</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Data/Scenario</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">建筑，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">BJ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">列</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">最后一列，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">KindID)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">，修改为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">28</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">兵模</t>
   </si>
   <si>
@@ -646,33 +935,7 @@
     <t xml:space="preserve">GameDate.cs,GameObjects</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">每个月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">号开始随机选择一首</t>
-    </r>
+    <t xml:space="preserve">每个月1号开始随机选择一首（取消每个月播放，还没听完就换月了）</t>
   </si>
   <si>
     <t xml:space="preserve">Session.cs,GameManager</t>
@@ -707,6 +970,21 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">城池图片/名片</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GameObjects/ArchitectureDetail/ArchitectureKind.cs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">不允许加载小城图片/关隘图片/城池名片，因地图已经画好</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MapLayers/ArchitectureLayer.cs,GameScreens/MGSStartLoad.cs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">这两段源码都在加载名片，但屏蔽前者即可。</t>
+  </si>
+  <si>
     <t xml:space="preserve">城池扩建后加载新图</t>
   </si>
   <si>
@@ -757,6 +1035,7 @@
     <r>
       <rPr>
         <sz val="10"/>
+        <color rgb="FFCCCCCC"/>
         <rFont val="微软雅黑"/>
         <family val="2"/>
         <charset val="134"/>
@@ -766,11 +1045,32 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">70</t>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">70(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">无需替换，在游戏设置页面设置即可</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">)</t>
     </r>
   </si>
   <si>
@@ -893,7 +1193,7 @@
     <t xml:space="preserve">游戏鸣谢</t>
   </si>
   <si>
-    <t xml:space="preserve">加入DLC鸣谢清单。</t>
+    <t xml:space="preserve">加入DLC鸣谢清单；DLC通告。</t>
   </si>
   <si>
     <t xml:space="preserve">DLC使用者必读</t>
@@ -909,6 +1209,15 @@
   </si>
   <si>
     <t xml:space="preserve">含使用说明和联系方式</t>
+  </si>
+  <si>
+    <t xml:space="preserve">取消“暂停音乐”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GameScreens/MainGameScreen.cs,MGSPersonText.cs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">玩家反映：发生对话框时，游戏会暂停音乐，显得突兀。</t>
   </si>
 </sst>
 </file>
@@ -918,7 +1227,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
@@ -945,6 +1254,20 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFCCCCCC"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFCCCCCC"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="134"/>
@@ -1004,7 +1327,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1022,6 +1345,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1050,7 +1381,7 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FFCCCCCC"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
@@ -1102,12 +1433,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="false" view="normal" topLeftCell="A1" colorId="60" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="2" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G37" activeCellId="0" sqref="G37"/>
+      <selection pane="bottomLeft" activeCell="A44" activeCellId="0" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1116,7 +1447,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="4.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="7.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="41.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="53.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="27.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="10.96"/>
   </cols>
@@ -1221,7 +1552,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
         <v>4</v>
       </c>
@@ -1235,13 +1566,13 @@
         <v>16</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1249,7 +1580,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>15</v>
@@ -1258,21 +1589,21 @@
         <v>16</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>15</v>
@@ -1281,13 +1612,13 @@
         <v>16</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1295,7 +1626,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>15</v>
@@ -1304,21 +1635,21 @@
         <v>16</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>15</v>
@@ -1327,13 +1658,13 @@
         <v>16</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1341,7 +1672,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>15</v>
@@ -1350,59 +1681,59 @@
         <v>16</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>32</v>
+      <c r="B12" s="0" t="s">
+        <v>39</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>16</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" s="2" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>10</v>
+        <v>42</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F13" s="0" t="s">
-        <v>38</v>
+        <v>43</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1410,19 +1741,22 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F14" s="0" t="s">
-        <v>42</v>
+      <c r="E14" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1430,22 +1764,22 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1453,22 +1787,19 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="0" t="s">
         <v>48</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="3" t="s">
-        <v>49</v>
+      <c r="E16" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1476,22 +1807,22 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>48</v>
+        <v>55</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>56</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F17" s="0" t="s">
         <v>12</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1499,22 +1830,22 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="F18" s="0" t="s">
         <v>12</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1522,22 +1853,22 @@
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C19" s="0" t="s">
-        <v>56</v>
+        <v>63</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="F19" s="0" t="s">
         <v>12</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1545,22 +1876,22 @@
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C20" s="0" t="s">
-        <v>56</v>
-      </c>
       <c r="D20" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>62</v>
+        <v>10</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="F20" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="G20" s="0" t="s">
-        <v>63</v>
+      <c r="G20" s="2" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1568,195 +1899,192 @@
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F21" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F21" s="0" t="s">
         <v>12</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="B22" s="2"/>
+      <c r="B22" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="C22" s="0" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="F22" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F22" s="0" t="s">
         <v>12</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" s="5" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C23" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G23" s="0" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2" t="s">
-        <v>56</v>
+      <c r="B24" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>68</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>74</v>
+      <c r="B25" s="0" t="s">
+        <v>81</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F25" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="F25" s="0" t="s">
         <v>12</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C26" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>12</v>
+      <c r="E26" s="0" t="s">
+        <v>84</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="B27" s="2"/>
+      <c r="B27" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="C27" s="0" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>79</v>
+        <v>73</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>87</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C28" s="0" t="s">
-        <v>56</v>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29" s="5" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="n">
         <v>27</v>
       </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>12</v>
+      <c r="B29" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1764,178 +2092,286 @@
         <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>85</v>
+        <v>73</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>87</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>87</v>
-      </c>
+      <c r="B31" s="2"/>
       <c r="C31" s="0" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2" t="s">
-        <v>56</v>
+      <c r="B32" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>68</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>12</v>
+      </c>
+      <c r="G32" s="0" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="n">
         <v>31</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C33" s="0" t="s">
-        <v>56</v>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>62</v>
+        <v>69</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>100</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="G33" s="0" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="n">
         <v>32</v>
       </c>
-      <c r="B34" s="0" t="s">
-        <v>92</v>
+      <c r="B34" s="2" t="s">
+        <v>101</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="F34" s="0" t="s">
-        <v>96</v>
+        <v>102</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="n">
         <v>33</v>
       </c>
-      <c r="B35" s="0" t="s">
-        <v>98</v>
+      <c r="B35" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D35" s="0" t="s">
-        <v>16</v>
+        <v>68</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>69</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F35" s="0" t="s">
-        <v>99</v>
+        <v>105</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="B36" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="C36" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="D36" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="F36" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G36" s="0" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="2"/>
+      <c r="C36" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="B37" s="0" t="s">
-        <v>103</v>
+      <c r="B37" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="D37" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="E37" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="F37" s="0" t="s">
-        <v>96</v>
+        <v>68</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F38" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="G38" s="0" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F39" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="G39" s="0" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F40" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G40" s="0" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="D41" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="E41" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="F41" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="G41" s="0" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="D43" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="E43" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="F43" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G43" s="0" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>
